--- a/Polynomino covering/ExecutionTime.xlsx
+++ b/Polynomino covering/ExecutionTime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole Polytechnique\2\P2\INF421\PI\Polynomino covering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\polyomino-tilling\Polynomino covering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B34A7-066B-478C-BD6E-D9016CB5DB16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FEC70E-8CC8-4F7E-9443-081E31B75AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{DA47A3F4-F176-4B00-933E-BBEC4A4215A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{DA47A3F4-F176-4B00-933E-BBEC4A4215A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,21 +507,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7156875D-7CCB-496D-9425-1C403BA52D36}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J3">
         <v>1</v>
       </c>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J4">
         <v>3</v>
       </c>
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -659,7 +659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -691,7 +691,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -723,7 +723,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -755,7 +755,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -787,7 +787,7 @@
         <v>16689</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -819,7 +819,7 @@
         <v>77359</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -851,7 +851,7 @@
         <v>362671</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -880,7 +880,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -906,7 +906,7 @@
         <v>39169</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>20331</v>
       </c>
@@ -914,12 +914,12 @@
         <v>110194</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L16">
         <v>311751</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
         <v>13</v>
       </c>
@@ -942,30 +942,30 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:51" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>2</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
       <c r="F7">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:51" x14ac:dyDescent="0.3">
       <c r="R9">
         <v>3</v>
       </c>
@@ -996,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>2</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>1</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12">
@@ -1083,15 +1083,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:51" x14ac:dyDescent="0.3">
       <c r="AR14" s="3"/>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:51" x14ac:dyDescent="0.3">
       <c r="AQ15" s="1"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="4"/>
     </row>
-    <row r="16" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:51" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="K16" s="3"/>
@@ -1101,7 +1101,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="L17" s="1" t="s">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:51" x14ac:dyDescent="0.3">
       <c r="Q18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="AR18" s="3"/>
       <c r="AX18" s="4"/>
     </row>
-    <row r="19" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E19" s="4"/>
       <c r="W19" s="4"/>
       <c r="AQ19" s="1"/>
@@ -1131,7 +1131,7 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="3"/>
     </row>
-    <row r="20" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="J20" s="4"/>
       <c r="K20" s="3"/>
@@ -1141,7 +1141,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
       <c r="L21" s="1" t="s">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="AR21" s="4"/>
     </row>
-    <row r="22" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:51" x14ac:dyDescent="0.3">
       <c r="O22" s="3"/>
       <c r="S22" s="1" t="s">
         <v>6</v>
@@ -1165,13 +1165,13 @@
       <c r="AX22" s="3"/>
       <c r="AY22" s="4"/>
     </row>
-    <row r="23" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:51" x14ac:dyDescent="0.3">
       <c r="K23" s="4"/>
       <c r="O23" s="2"/>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="2"/>
     </row>
-    <row r="24" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
       <c r="K24" s="3"/>
@@ -1183,7 +1183,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
       <c r="L25" s="1" t="s">
@@ -1193,19 +1193,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:51" x14ac:dyDescent="0.3">
       <c r="Q26" s="3"/>
       <c r="R26" s="4"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="4"/>
     </row>
-    <row r="27" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:51" x14ac:dyDescent="0.3">
       <c r="L27" s="4"/>
       <c r="Q27" s="2"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="2"/>
     </row>
-    <row r="28" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="K28" s="3"/>
       <c r="L28" s="2"/>
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="5:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
@@ -1235,12 +1235,12 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="6:13" x14ac:dyDescent="0.5">
       <c r="G4" s="8">
         <v>1</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="6:13" x14ac:dyDescent="0.5">
       <c r="F5" s="7">
         <v>356</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="6:13" x14ac:dyDescent="0.5">
       <c r="F6" s="7">
         <v>147</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="6:13" x14ac:dyDescent="0.5">
       <c r="F7" s="7">
         <v>236</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="6:13" x14ac:dyDescent="0.5">
       <c r="F8" s="7">
         <v>14</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="6:13" x14ac:dyDescent="0.5">
       <c r="F9" s="7">
         <v>27</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="6:13" x14ac:dyDescent="0.5">
       <c r="F10" s="7">
         <v>457</v>
       </c>
@@ -1429,18 +1429,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79422C-0B84-4477-9021-6B644C1B46F3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1524,35 +1524,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>203</v>
+      </c>
+      <c r="C7">
         <v>44</v>
-      </c>
-      <c r="C7">
-        <v>203</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>877</v>
+      </c>
+      <c r="C8">
         <v>262</v>
-      </c>
-      <c r="C8">
-        <v>877</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1588,10 +1588,10 @@
         <v>115975</v>
       </c>
       <c r="D11">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
